--- a/dataset/example_problem.xlsx
+++ b/dataset/example_problem.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">A_2,B_1</t>
   </si>
   <si>
-    <t xml:space="preserve">DARES01_A_DA1,WBRES01_A_WB1</t>
+    <t xml:space="preserve">DARES01_A_DA1,WBRES01_B_DA1</t>
   </si>
 </sst>
 </file>

--- a/dataset/example_problem.xlsx
+++ b/dataset/example_problem.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">A_2,B_1</t>
   </si>
   <si>
-    <t xml:space="preserve">DARES01_A_DA1,WBRES01_B_DA1</t>
+    <t xml:space="preserve">DARES01_A_DA1,WBRES01_B_WB1</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,6 +131,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,17 +289,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
